--- a/wc_16.xlsx
+++ b/wc_16.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\PYTON\DSwPiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF043DE-0001-4096-B2CE-C8D30DF5843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B5F16-73D3-4DDE-8189-3A0CF1E13409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="group_stages" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -9227,7 +9227,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9325,15 +9325,15 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <f>E2-F2</f>
+        <f t="shared" ref="L2:L9" si="0">E2-F2</f>
         <v>-8</v>
       </c>
       <c r="M2">
-        <f>(E2-F2)/2</f>
+        <f t="shared" ref="M2:M9" si="1">(E2-F2)/2</f>
         <v>-4</v>
       </c>
       <c r="N2">
-        <f>C2-D2</f>
+        <f t="shared" ref="N2:N9" si="2">C2-D2</f>
         <v>67.029999999999973</v>
       </c>
     </row>
@@ -9374,15 +9374,15 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f>E3-F3</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
       <c r="M3">
-        <f>(E3-F3)/2</f>
+        <f t="shared" si="1"/>
         <v>-17.5</v>
       </c>
       <c r="N3">
-        <f>C3-D3</f>
+        <f t="shared" si="2"/>
         <v>285.16000000000008</v>
       </c>
     </row>
@@ -9425,15 +9425,15 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <f>E4-F4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M4">
-        <f>(E4-F4)/2</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N4">
-        <f>C4-D4</f>
+        <f t="shared" si="2"/>
         <v>-86.100000000000136</v>
       </c>
     </row>
@@ -9474,15 +9474,15 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>E5-F5</f>
+        <f t="shared" si="0"/>
         <v>-27</v>
       </c>
       <c r="M5">
-        <f>(E5-F5)/2</f>
+        <f t="shared" si="1"/>
         <v>-13.5</v>
       </c>
       <c r="N5">
-        <f>C5-D5</f>
+        <f t="shared" si="2"/>
         <v>311</v>
       </c>
     </row>
@@ -9516,22 +9516,21 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP(A6,[1]Sheet1!$D$2:$E$36,2,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <f>E6-F6</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="M6">
-        <f>(E6-F6)/2</f>
+        <f t="shared" si="1"/>
         <v>-6.5</v>
       </c>
       <c r="N6">
-        <f>C6-D6</f>
+        <f t="shared" si="2"/>
         <v>144.08999999999992</v>
       </c>
     </row>
@@ -9574,15 +9573,15 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <f>E7-F7</f>
+        <f t="shared" si="0"/>
         <v>-22</v>
       </c>
       <c r="M7">
-        <f>(E7-F7)/2</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="N7">
-        <f>C7-D7</f>
+        <f t="shared" si="2"/>
         <v>211.19000000000005</v>
       </c>
     </row>
@@ -9623,15 +9622,15 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <f>E8-F8</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M8">
-        <f>(E8-F8)/2</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="N8">
-        <f>C8-D8</f>
+        <f t="shared" si="2"/>
         <v>-151.72000000000003</v>
       </c>
     </row>
@@ -9674,15 +9673,15 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <f>E9-F9</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="M9">
-        <f>(E9-F9)/2</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="N9">
-        <f>C9-D9</f>
+        <f t="shared" si="2"/>
         <v>40.639999999999873</v>
       </c>
     </row>
@@ -11881,7 +11880,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:N44"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,15 +11964,15 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <f>E2-F2</f>
+        <f t="shared" ref="L2:L49" si="0">E2-F2</f>
         <v>6</v>
       </c>
       <c r="M2">
-        <f>(E2-F2)/2</f>
+        <f t="shared" ref="M2:M49" si="1">(E2-F2)/2</f>
         <v>3</v>
       </c>
       <c r="N2">
-        <f>C2-D2</f>
+        <f t="shared" ref="N2:N49" si="2">C2-D2</f>
         <v>-24.5</v>
       </c>
     </row>
@@ -12014,15 +12013,15 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <f>E3-F3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M3">
-        <f>(E3-F3)/2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N3">
-        <f>C3-D3</f>
+        <f t="shared" si="2"/>
         <v>-110.12999999999988</v>
       </c>
     </row>
@@ -12061,15 +12060,15 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <f>E4-F4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M4">
-        <f>(E4-F4)/2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N4">
-        <f>C4-D4</f>
+        <f t="shared" si="2"/>
         <v>-144.49</v>
       </c>
     </row>
@@ -12110,15 +12109,15 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <f>E5-F5</f>
+        <f t="shared" si="0"/>
         <v>-36</v>
       </c>
       <c r="M5">
-        <f>(E5-F5)/2</f>
+        <f t="shared" si="1"/>
         <v>-18</v>
       </c>
       <c r="N5">
-        <f>C5-D5</f>
+        <f t="shared" si="2"/>
         <v>230.11999999999989</v>
       </c>
     </row>
@@ -12159,15 +12158,15 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>E6-F6</f>
+        <f t="shared" si="0"/>
         <v>-42</v>
       </c>
       <c r="M6">
-        <f>(E6-F6)/2</f>
+        <f t="shared" si="1"/>
         <v>-21</v>
       </c>
       <c r="N6">
-        <f>C6-D6</f>
+        <f t="shared" si="2"/>
         <v>254.61999999999989</v>
       </c>
     </row>
@@ -12206,15 +12205,15 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <f>E7-F7</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="M7">
-        <f>(E7-F7)/2</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N7">
-        <f>C7-D7</f>
+        <f t="shared" si="2"/>
         <v>-119.99000000000001</v>
       </c>
     </row>
@@ -12255,15 +12254,15 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <f>E8-F8</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="M8">
-        <f>(E8-F8)/2</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
       <c r="N8">
-        <f>C8-D8</f>
+        <f t="shared" si="2"/>
         <v>163.86000000000013</v>
       </c>
     </row>
@@ -12302,15 +12301,15 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f>E9-F9</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="M9">
-        <f>(E9-F9)/2</f>
+        <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
       <c r="N9">
-        <f>C9-D9</f>
+        <f t="shared" si="2"/>
         <v>57.660000000000082</v>
       </c>
     </row>
@@ -12349,15 +12348,15 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <f>E10-F10</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="M10">
-        <f>(E10-F10)/2</f>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
       <c r="N10">
-        <f>C10-D10</f>
+        <f t="shared" si="2"/>
         <v>5.2100000000000364</v>
       </c>
     </row>
@@ -12398,15 +12397,15 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <f>E11-F11</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="M11">
-        <f>(E11-F11)/2</f>
+        <f t="shared" si="1"/>
         <v>-5.5</v>
       </c>
       <c r="N11">
-        <f>C11-D11</f>
+        <f t="shared" si="2"/>
         <v>100.99000000000001</v>
       </c>
     </row>
@@ -12447,15 +12446,15 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <f>E12-F12</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M12">
-        <f>(E12-F12)/2</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N12">
-        <f>C12-D12</f>
+        <f t="shared" si="2"/>
         <v>-158.65000000000009</v>
       </c>
     </row>
@@ -12494,15 +12493,15 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <f>E13-F13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M13">
-        <f>(E13-F13)/2</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N13">
-        <f>C13-D13</f>
+        <f t="shared" si="2"/>
         <v>-62.870000000000118</v>
       </c>
     </row>
@@ -12541,15 +12540,15 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <f>E14-F14</f>
+        <f t="shared" si="0"/>
         <v>-48</v>
       </c>
       <c r="M14">
-        <f>(E14-F14)/2</f>
+        <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="N14">
-        <f>C14-D14</f>
+        <f t="shared" si="2"/>
         <v>336.10000000000014</v>
       </c>
     </row>
@@ -12590,15 +12589,15 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <f>E15-F15</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="M15">
-        <f>(E15-F15)/2</f>
+        <f t="shared" si="1"/>
         <v>-6.5</v>
       </c>
       <c r="N15">
-        <f>C15-D15</f>
+        <f t="shared" si="2"/>
         <v>96.300000000000182</v>
       </c>
     </row>
@@ -12639,15 +12638,15 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <f>E16-F16</f>
+        <f t="shared" si="0"/>
         <v>-25</v>
       </c>
       <c r="M16">
-        <f>(E16-F16)/2</f>
+        <f t="shared" si="1"/>
         <v>-12.5</v>
       </c>
       <c r="N16">
-        <f>C16-D16</f>
+        <f t="shared" si="2"/>
         <v>110.80999999999995</v>
       </c>
     </row>
@@ -12686,15 +12685,15 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <f>E17-F17</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="M17">
-        <f>(E17-F17)/2</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="N17">
-        <f>C17-D17</f>
+        <f t="shared" si="2"/>
         <v>128.99</v>
       </c>
     </row>
@@ -12735,15 +12734,15 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <f>E18-F18</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="M18">
-        <f>(E18-F18)/2</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="N18">
-        <f>C18-D18</f>
+        <f t="shared" si="2"/>
         <v>-225.29000000000019</v>
       </c>
     </row>
@@ -12782,15 +12781,15 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <f>E19-F19</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="M19">
-        <f>(E19-F19)/2</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="N19">
-        <f>C19-D19</f>
+        <f t="shared" si="2"/>
         <v>-207.11000000000013</v>
       </c>
     </row>
@@ -12833,15 +12832,15 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <f>E20-F20</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="M20">
-        <f>(E20-F20)/2</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="N20">
-        <f>C20-D20</f>
+        <f t="shared" si="2"/>
         <v>159.02999999999997</v>
       </c>
     </row>
@@ -12884,15 +12883,15 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <f>E21-F21</f>
+        <f t="shared" si="0"/>
         <v>-34</v>
       </c>
       <c r="M21">
-        <f>(E21-F21)/2</f>
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
       <c r="N21">
-        <f>C21-D21</f>
+        <f t="shared" si="2"/>
         <v>271.05999999999995</v>
       </c>
     </row>
@@ -12935,15 +12934,15 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <f>E22-F22</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="M22">
-        <f>(E22-F22)/2</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="N22">
-        <f>C22-D22</f>
+        <f t="shared" si="2"/>
         <v>18.819999999999936</v>
       </c>
     </row>
@@ -12986,15 +12985,15 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <f>E23-F23</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="M23">
-        <f>(E23-F23)/2</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="N23">
-        <f>C23-D23</f>
+        <f t="shared" si="2"/>
         <v>93.210000000000036</v>
       </c>
     </row>
@@ -13037,15 +13036,15 @@
         <v>4</v>
       </c>
       <c r="L24">
-        <f>E24-F24</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="M24">
-        <f>(E24-F24)/2</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N24">
-        <f>C24-D24</f>
+        <f t="shared" si="2"/>
         <v>-252.24</v>
       </c>
     </row>
@@ -13088,15 +13087,15 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <f>E25-F25</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="M25">
-        <f>(E25-F25)/2</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="N25">
-        <f>C25-D25</f>
+        <f t="shared" si="2"/>
         <v>-177.84999999999991</v>
       </c>
     </row>
@@ -13139,15 +13138,15 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <f>E26-F26</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="M26">
-        <f>(E26-F26)/2</f>
+        <f t="shared" si="1"/>
         <v>-6.5</v>
       </c>
       <c r="N26">
-        <f>C26-D26</f>
+        <f t="shared" si="2"/>
         <v>90.670000000000073</v>
       </c>
     </row>
@@ -13190,15 +13189,15 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <f>E27-F27</f>
+        <f t="shared" si="0"/>
         <v>-24</v>
       </c>
       <c r="M27">
-        <f>(E27-F27)/2</f>
+        <f t="shared" si="1"/>
         <v>-12</v>
       </c>
       <c r="N27">
-        <f>C27-D27</f>
+        <f t="shared" si="2"/>
         <v>211.63000000000011</v>
       </c>
     </row>
@@ -13241,15 +13240,15 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <f>E28-F28</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="M28">
-        <f>(E28-F28)/2</f>
+        <f t="shared" si="1"/>
         <v>-3.5</v>
       </c>
       <c r="N28">
-        <f>C28-D28</f>
+        <f t="shared" si="2"/>
         <v>55.950000000000045</v>
       </c>
     </row>
@@ -13292,15 +13291,15 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <f>E29-F29</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="M29">
-        <f>(E29-F29)/2</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="N29">
-        <f>C29-D29</f>
+        <f t="shared" si="2"/>
         <v>65.009999999999991</v>
       </c>
     </row>
@@ -13343,15 +13342,15 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <f>E30-F30</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M30">
-        <f>(E30-F30)/2</f>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="N30">
-        <f>C30-D30</f>
+        <f t="shared" si="2"/>
         <v>-155.68000000000006</v>
       </c>
     </row>
@@ -13394,15 +13393,15 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <f>E31-F31</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M31">
-        <f>(E31-F31)/2</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N31">
-        <f>C31-D31</f>
+        <f t="shared" si="2"/>
         <v>-146.62000000000012</v>
       </c>
     </row>
@@ -13443,15 +13442,15 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <f>E32-F32</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M32">
-        <f>(E32-F32)/2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N32">
-        <f>C32-D32</f>
+        <f t="shared" si="2"/>
         <v>-82.1400000000001</v>
       </c>
     </row>
@@ -13492,15 +13491,15 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <f>E33-F33</f>
+        <f t="shared" si="0"/>
         <v>-39</v>
       </c>
       <c r="M33">
-        <f>(E33-F33)/2</f>
+        <f t="shared" si="1"/>
         <v>-19.5</v>
       </c>
       <c r="N33">
-        <f>C33-D33</f>
+        <f t="shared" si="2"/>
         <v>341.71000000000004</v>
       </c>
     </row>
@@ -13541,15 +13540,15 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <f>E34-F34</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="M34">
-        <f>(E34-F34)/2</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="N34">
-        <f>C34-D34</f>
+        <f t="shared" si="2"/>
         <v>253.21000000000004</v>
       </c>
     </row>
@@ -13590,15 +13589,15 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <f>E35-F35</f>
+        <f t="shared" si="0"/>
         <v>-29</v>
       </c>
       <c r="M35">
-        <f>(E35-F35)/2</f>
+        <f t="shared" si="1"/>
         <v>-14.5</v>
       </c>
       <c r="N35">
-        <f>C35-D35</f>
+        <f t="shared" si="2"/>
         <v>170.6400000000001</v>
       </c>
     </row>
@@ -13641,15 +13640,15 @@
         <v>4</v>
       </c>
       <c r="L36">
-        <f>E36-F36</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M36">
-        <f>(E36-F36)/2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N36">
-        <f>C36-D36</f>
+        <f t="shared" si="2"/>
         <v>-171.06999999999994</v>
       </c>
     </row>
@@ -13688,15 +13687,15 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <f>E37-F37</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="M37">
-        <f>(E37-F37)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="N37">
-        <f>C37-D37</f>
+        <f t="shared" si="2"/>
         <v>-88.5</v>
       </c>
     </row>
@@ -13737,15 +13736,15 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <f>E38-F38</f>
+        <f t="shared" si="0"/>
         <v>-28</v>
       </c>
       <c r="M38">
-        <f>(E38-F38)/2</f>
+        <f t="shared" si="1"/>
         <v>-14</v>
       </c>
       <c r="N38">
-        <f>C38-D38</f>
+        <f t="shared" si="2"/>
         <v>164.48000000000002</v>
       </c>
     </row>
@@ -13786,15 +13785,15 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <f>E39-F39</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="M39">
-        <f>(E39-F39)/2</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="N39">
-        <f>C39-D39</f>
+        <f t="shared" si="2"/>
         <v>277.68000000000006</v>
       </c>
     </row>
@@ -13835,15 +13834,15 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <f>E40-F40</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="M40">
-        <f>(E40-F40)/2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N40">
-        <f>C40-D40</f>
+        <f t="shared" si="2"/>
         <v>-92.179999999999836</v>
       </c>
     </row>
@@ -13884,15 +13883,15 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <f>E41-F41</f>
+        <f t="shared" si="0"/>
         <v>-14</v>
       </c>
       <c r="M41">
-        <f>(E41-F41)/2</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="N41">
-        <f>C41-D41</f>
+        <f t="shared" si="2"/>
         <v>205.37999999999988</v>
       </c>
     </row>
@@ -13931,15 +13930,15 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <f>E42-F42</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="M42">
-        <f>(E42-F42)/2</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="N42">
-        <f>C42-D42</f>
+        <f t="shared" si="2"/>
         <v>-369.8599999999999</v>
       </c>
     </row>
@@ -13982,15 +13981,15 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <f>E43-F43</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M43">
-        <f>(E43-F43)/2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N43">
-        <f>C43-D43</f>
+        <f t="shared" si="2"/>
         <v>-72.300000000000182</v>
       </c>
     </row>
@@ -14033,15 +14032,15 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <f>E44-F44</f>
+        <f t="shared" si="0"/>
         <v>-14</v>
       </c>
       <c r="M44">
-        <f>(E44-F44)/2</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="N44">
-        <f>C44-D44</f>
+        <f t="shared" si="2"/>
         <v>108.41000000000008</v>
       </c>
     </row>
@@ -14084,15 +14083,15 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <f>E45-F45</f>
+        <f t="shared" si="0"/>
         <v>-52</v>
       </c>
       <c r="M45">
-        <f>(E45-F45)/2</f>
+        <f t="shared" si="1"/>
         <v>-26</v>
       </c>
       <c r="N45">
-        <f>C45-D45</f>
+        <f t="shared" si="2"/>
         <v>283.55999999999995</v>
       </c>
     </row>
@@ -14134,15 +14133,15 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <f>E46-F46</f>
+        <f t="shared" si="0"/>
         <v>-33</v>
       </c>
       <c r="M46">
-        <f>(E46-F46)/2</f>
+        <f t="shared" si="1"/>
         <v>-16.5</v>
       </c>
       <c r="N46">
-        <f>C46-D46</f>
+        <f t="shared" si="2"/>
         <v>137.29999999999995</v>
       </c>
     </row>
@@ -14185,15 +14184,15 @@
         <v>4</v>
       </c>
       <c r="L47">
-        <f>E47-F47</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="M47">
-        <f>(E47-F47)/2</f>
+        <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
       <c r="N47">
-        <f>C47-D47</f>
+        <f t="shared" si="2"/>
         <v>37.849999999999909</v>
       </c>
     </row>
@@ -14235,15 +14234,15 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <f>E48-F48</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="M48">
-        <f>(E48-F48)/2</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="N48">
-        <f>C48-D48</f>
+        <f t="shared" si="2"/>
         <v>-146.26</v>
       </c>
     </row>
@@ -14286,15 +14285,15 @@
         <v>4</v>
       </c>
       <c r="L49">
-        <f>E49-F49</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="M49">
-        <f>(E49-F49)/2</f>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="N49">
-        <f>C49-D49</f>
+        <f t="shared" si="2"/>
         <v>-245.71000000000004</v>
       </c>
     </row>
